--- a/data/Economic_Impact/GDP/OECD Region.xlsx
+++ b/data/Economic_Impact/GDP/OECD Region.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin\Desktop\Dashboard_Vers1\data\Economic_Impact\GDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C4E66D-3697-4AA9-9BF9-461A9EEE80B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92505078-A692-4B0C-B3C9-4D770F267CE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="2685" windowWidth="29985" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="1200" windowWidth="29985" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code Country" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="498">
   <si>
     <t>ABW</t>
   </si>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2334,6 +2334,9 @@
       </c>
       <c r="B42" t="s">
         <v>313</v>
+      </c>
+      <c r="C42" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
